--- a/new kartochki/zoom.xlsx
+++ b/new kartochki/zoom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG114"/>
+  <dimension ref="A1:AH117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,150 +451,155 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>ЗМ c НДС</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Артикул</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Ozon Product ID</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FBO OZON SKU ID</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>FBS OZON SKU ID</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>CrossBorder Ozon SKU</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Наименование товара</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Контент-рейтинг</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Бренд</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Статус товара</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Видимость FBO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Причины скрытия FBO (при наличии)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Видимость FBS</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Причины скрытия FBS (при наличии)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Дата создания</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Категория комиссии</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Объем товара, л</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Объемный вес, кг</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Доступно к продаже по схеме FBO, шт.</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Вывезти и нанести КИЗ (кроме Твери), шт</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Зарезервировано, шт</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Доступно к продаже по схеме FBS, шт.</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Доступно к продаже по схеме realFBS, шт.</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Зарезервировано на моих складах, шт</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Текущая цена с учетом скидки, ₽</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Цена до скидки (перечеркнутая цена), ₽</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Цена Premium, ₽</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Рыночная цена, ₽</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Актуальная ссылка на рыночную цену</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Размер НДС, %</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Остаток_y</t>
         </is>
@@ -612,7 +617,9 @@
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>5.87</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -642,6 +649,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -655,7 +663,9 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>30.43</v>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -685,6 +695,7 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -698,7 +709,9 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>101.93</v>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -728,6 +741,7 @@
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -741,7 +755,9 @@
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>6.8</v>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -771,6 +787,7 @@
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -784,7 +801,9 @@
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>33.22</v>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -814,6 +833,7 @@
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -827,7 +847,9 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>6.8</v>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -857,6 +879,7 @@
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -870,7 +893,9 @@
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>33.22</v>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -900,6 +925,7 @@
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -913,7 +939,9 @@
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>6.34</v>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -943,6 +971,7 @@
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -956,7 +985,9 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>32.3</v>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -986,6 +1017,7 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -999,7 +1031,9 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>6.8</v>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1029,6 +1063,7 @@
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1042,7 +1077,9 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>33.22</v>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1072,6 +1109,7 @@
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1085,7 +1123,9 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>6.8</v>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -1115,6 +1155,7 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1128,7 +1169,9 @@
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>33.22</v>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -1158,6 +1201,7 @@
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1171,7 +1215,9 @@
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>110.74</v>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -1201,6 +1247,7 @@
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1214,7 +1261,9 @@
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>6.8</v>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1244,6 +1293,7 @@
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1257,7 +1307,9 @@
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>33.22</v>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1287,6 +1339,7 @@
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1300,7 +1353,9 @@
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>110.74</v>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1330,6 +1385,7 @@
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1343,7 +1399,9 @@
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>109.76</v>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1373,6 +1431,7 @@
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1386,7 +1445,9 @@
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>109.76</v>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1416,6 +1477,7 @@
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1429,7 +1491,9 @@
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>131.78</v>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1459,6 +1523,7 @@
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1472,7 +1537,9 @@
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>38.21</v>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1502,6 +1569,7 @@
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1515,7 +1583,9 @@
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>44.98</v>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1545,6 +1615,7 @@
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1558,7 +1629,9 @@
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>136.91</v>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1588,6 +1661,7 @@
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1601,7 +1675,9 @@
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>44.98</v>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1631,6 +1707,7 @@
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1644,7 +1721,9 @@
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>136.91</v>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1674,6 +1753,7 @@
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1687,7 +1767,9 @@
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>38.2</v>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -1717,6 +1799,7 @@
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1730,7 +1813,9 @@
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>175.63</v>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1760,6 +1845,7 @@
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1773,7 +1859,9 @@
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>30.9</v>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1803,6 +1891,7 @@
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1816,7 +1905,9 @@
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>101.09</v>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1846,6 +1937,7 @@
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1859,7 +1951,9 @@
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>32.3</v>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1889,6 +1983,7 @@
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1902,7 +1997,9 @@
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>101.09</v>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1932,6 +2029,7 @@
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1945,7 +2043,9 @@
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>25.85</v>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1975,6 +2075,7 @@
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1988,7 +2089,9 @@
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>115.57</v>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2018,6 +2121,7 @@
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2031,7 +2135,9 @@
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>25.85</v>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -2061,6 +2167,7 @@
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2074,7 +2181,9 @@
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>115.57</v>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -2104,6 +2213,7 @@
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2117,7 +2227,9 @@
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>25.85</v>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -2147,6 +2259,7 @@
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2160,7 +2273,9 @@
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>115.57</v>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -2190,6 +2305,7 @@
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2203,7 +2319,9 @@
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>145.5</v>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -2233,6 +2351,7 @@
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2246,7 +2365,9 @@
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>26.12</v>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -2276,6 +2397,7 @@
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2289,7 +2411,9 @@
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>224.71</v>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -2319,6 +2443,7 @@
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2332,7 +2457,9 @@
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>26.12</v>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -2362,6 +2489,7 @@
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2375,7 +2503,9 @@
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>106.06</v>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -2405,6 +2535,7 @@
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2418,7 +2549,9 @@
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>26.12</v>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -2448,6 +2581,7 @@
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2461,7 +2595,9 @@
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>145.5</v>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -2491,6 +2627,7 @@
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2504,7 +2641,9 @@
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>44.71</v>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2534,6 +2673,7 @@
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2547,7 +2687,9 @@
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>131.78</v>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -2577,6 +2719,7 @@
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2590,7 +2733,9 @@
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>44.71</v>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -2620,6 +2765,7 @@
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2633,7 +2779,9 @@
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>210.85</v>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -2663,6 +2811,7 @@
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2676,7 +2825,9 @@
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>25.13</v>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2706,6 +2857,7 @@
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2719,7 +2871,9 @@
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>118.97</v>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -2749,6 +2903,7 @@
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2762,7 +2917,9 @@
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>25.13</v>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2792,6 +2949,7 @@
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2805,7 +2963,9 @@
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>118.97</v>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2835,6 +2995,7 @@
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2848,7 +3009,9 @@
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>119.12</v>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -2878,6 +3041,7 @@
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2891,7 +3055,9 @@
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>6.8</v>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -2921,6 +3087,7 @@
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2934,7 +3101,9 @@
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>28.99</v>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2964,6 +3133,7 @@
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2977,7 +3147,9 @@
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>118.97</v>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -3007,6 +3179,7 @@
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3020,7 +3193,9 @@
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>28.99</v>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -3050,6 +3225,7 @@
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3063,7 +3239,9 @@
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>119.12</v>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
@@ -3093,6 +3271,7 @@
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3106,7 +3285,9 @@
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>6.8</v>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
@@ -3136,6 +3317,7 @@
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3149,7 +3331,9 @@
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>118.97</v>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
@@ -3179,6 +3363,7 @@
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3192,7 +3377,9 @@
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>6.8</v>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
@@ -3222,6 +3409,7 @@
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3235,7 +3423,9 @@
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>25.13</v>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
@@ -3265,6 +3455,7 @@
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3278,7 +3469,9 @@
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>118.97</v>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -3308,6 +3501,7 @@
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3321,7 +3515,9 @@
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>119.12</v>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
@@ -3351,6 +3547,7 @@
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3364,7 +3561,9 @@
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>29.52</v>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -3394,6 +3593,7 @@
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3407,7 +3607,9 @@
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>121.36</v>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
@@ -3437,20 +3639,23 @@
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>8033424964018</t>
+          <t>8033424964001</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve">            пробник PRC CAMPIONE CAT Adult ARINGA (0.3кг) Корм для взрослых  кошек с сельдью</t>
+          <t xml:space="preserve">            пробник PRC CAMPIONE  CAT KITTEN (0.3кг) Корм для котят с курицей</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>6</v>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
@@ -3480,20 +3685,23 @@
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8033424964032</t>
+          <t>8033424964070</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">            пробник PRC CAMPIONE CAT Adult MANZO (0.3кг) Корм для взрослых  кошек с говядиной</t>
+          <t xml:space="preserve">            пробник PRC CAMPIONE  CAT STERILISED MANZO (0.3кг)Корм для стерилизованных кошек с говядиной</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>6</v>
+      </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
@@ -3523,20 +3731,23 @@
       <c r="AE69" t="inlineStr"/>
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>8033424964056</t>
+          <t>8033424964018</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">            пробник PRC CAMPIONE CAT Sterilizatto ARINGA (0.3кг) Корм для стерилизованных кошек с сельдью</t>
+          <t xml:space="preserve">            пробник PRC CAMPIONE CAT Adult ARINGA (0.3кг) Корм для взрослых  кошек с сельдью</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>6</v>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -3566,20 +3777,23 @@
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="inlineStr"/>
+      <c r="AH70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>8033424955603</t>
+          <t>8033424964032</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  ALL BREEDS BUFALO  (2кг) Корм для взрослых собак всех  пород с буйволом</t>
+          <t xml:space="preserve">            пробник PRC CAMPIONE CAT Adult MANZO (0.3кг) Корм для взрослых  кошек с говядиной</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>6</v>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -3609,20 +3823,23 @@
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>8033424955467</t>
+          <t>8033424964056</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  ALL BREEDS BUFALO (12кг) Корм для взрослых собак всех  пород с буйволом</t>
+          <t xml:space="preserve">            пробник PRC CAMPIONE CAT Sterilizatto ARINGA (0.3кг) Корм для стерилизованных кошек с сельдью</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>6</v>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -3652,20 +3869,23 @@
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>8033424955597</t>
+          <t>8033424964087</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  ALL BREEDS CAVALLO  (2кг) Корм для взрослых собак всех  пород с кониной</t>
+          <t xml:space="preserve">            пробник PRC CAMPIONE CAT STERILIZZATO POLLO (0.3 кг) Корм для стерилизованных кошек с курицей</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>6</v>
+      </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -3695,20 +3915,23 @@
       <c r="AE73" t="inlineStr"/>
       <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>8033424955023</t>
+          <t>8033424955603</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  ALL BREEDS CAVALLO (12кг) Корм для взрослых собак всех  пород с кониной</t>
+          <t xml:space="preserve">            PRD Adult  ALL BREEDS BUFALO  (2кг) Корм для взрослых собак всех  пород с буйволом</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="n">
+        <v>26.22</v>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
@@ -3738,20 +3961,23 @@
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="inlineStr"/>
+      <c r="AH74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>8033424955610</t>
+          <t>8033424955467</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  ALL BREEDS CERVO  (2кг) Корм для взрослых собак всех  пород с олениной</t>
+          <t xml:space="preserve">            PRD Adult  ALL BREEDS BUFALO (12кг) Корм для взрослых собак всех  пород с буйволом</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="n">
+        <v>117.96</v>
+      </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3781,20 +4007,23 @@
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
+      <c r="AH75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>8033424955474</t>
+          <t>8033424955597</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  ALL BREEDS CERVO (12кг) Корм для взрослых собак всех  пород с олениной</t>
+          <t xml:space="preserve">            PRD Adult  ALL BREEDS CAVALLO  (2кг) Корм для взрослых собак всех  пород с кониной</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="n">
+        <v>25.02</v>
+      </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
@@ -3824,20 +4053,23 @@
       <c r="AE76" t="inlineStr"/>
       <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="inlineStr"/>
+      <c r="AH76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>8033424955221</t>
+          <t>8033424955023</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  ALL BREEDS LIGHT  (2кг) Корм для взрослых собак всех  пород низкокалор.с курицей</t>
+          <t xml:space="preserve">            PRD Adult  ALL BREEDS CAVALLO (12кг) Корм для взрослых собак всех  пород с кониной</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="n">
+        <v>112.97</v>
+      </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
@@ -3867,20 +4099,23 @@
       <c r="AE77" t="inlineStr"/>
       <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>8033424955108</t>
+          <t>8033424955610</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  ALL BREEDS LIGHT (12кг) Корм для взрослых собак всех  пород низкокалор.с курицей</t>
+          <t xml:space="preserve">            PRD Adult  ALL BREEDS CERVO  (2кг) Корм для взрослых собак всех  пород с олениной</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="n">
+        <v>26.22</v>
+      </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
@@ -3910,20 +4145,23 @@
       <c r="AE78" t="inlineStr"/>
       <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>8033424955672</t>
+          <t>8033424955474</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MAXI AGNELLO  (2кг) Корм для взрослых собак крупных пород с ягненком</t>
+          <t xml:space="preserve">            PRD Adult  ALL BREEDS CERVO (12кг) Корм для взрослых собак всех  пород с олениной</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>117.96</v>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
@@ -3953,20 +4191,23 @@
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>8033424955665</t>
+          <t>8033424955221</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MAXI AGNELLO (12кг) Корм для взрослых собак крупных пород с ягненком</t>
+          <t xml:space="preserve">            PRD Adult  ALL BREEDS LIGHT  (2кг) Корм для взрослых собак всех  пород низкокалор.с курицей</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>19.84</v>
+      </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
@@ -3996,20 +4237,23 @@
       <c r="AE80" t="inlineStr"/>
       <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="inlineStr"/>
+      <c r="AH80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>8033424955658</t>
+          <t>8033424955108</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MAXI MAIALE  (2кг) Корм для взрослых собак крупных пород со свининой</t>
+          <t xml:space="preserve">            PRD Adult  ALL BREEDS LIGHT (12кг) Корм для взрослых собак всех  пород низкокалор.с курицей</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>97.2</v>
+      </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
@@ -4039,20 +4283,23 @@
       <c r="AE81" t="inlineStr"/>
       <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="inlineStr"/>
+      <c r="AH81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>8033424955641</t>
+          <t>8033424955672</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MAXI MAIALE (12кг) Корм для взрослых собак крупных пород со свининой</t>
+          <t xml:space="preserve">            PRD Adult  MAXI AGNELLO  (2кг) Корм для взрослых собак крупных пород с ягненком</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>25.02</v>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -4082,20 +4329,23 @@
       <c r="AE82" t="inlineStr"/>
       <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="inlineStr"/>
+      <c r="AH82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>8033424955627</t>
+          <t>8033424955665</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MAXI POLLO  (2кг) Корм для взрослых собак  крупных пород с курицей</t>
+          <t xml:space="preserve">            PRD Adult  MAXI AGNELLO (12кг) Корм для взрослых собак крупных пород с ягненком</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>112.97</v>
+      </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
@@ -4125,20 +4375,23 @@
       <c r="AE83" t="inlineStr"/>
       <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="inlineStr"/>
+      <c r="AH83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>8033424955160</t>
+          <t>8033424955658</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MAXI POLLO (12кг) Корм для взрослых собак  крупных пород с курицей</t>
+          <t xml:space="preserve">            PRD Adult  MAXI MAIALE  (2кг) Корм для взрослых собак крупных пород со свининой</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>25.02</v>
+      </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -4168,20 +4421,23 @@
       <c r="AE84" t="inlineStr"/>
       <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="inlineStr"/>
+      <c r="AH84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>8033424955634</t>
+          <t>8033424955641</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MAXI SALMON  (2кг) Корм для взрослых собак крупных  пород с лососем</t>
+          <t xml:space="preserve">            PRD Adult  MAXI MAIALE (12кг) Корм для взрослых собак крупных пород со свининой</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>112.97</v>
+      </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
@@ -4211,20 +4467,23 @@
       <c r="AE85" t="inlineStr"/>
       <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="inlineStr"/>
+      <c r="AH85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>8033424955276</t>
+          <t>8033424955627</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MAXI SALMON (12кг) Корм для взрослых собак крупных  пород с лососем</t>
+          <t xml:space="preserve">            PRD Adult  MAXI POLLO  (2кг) Корм для взрослых собак  крупных пород с курицей</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>23.24</v>
+      </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
@@ -4254,20 +4513,23 @@
       <c r="AE86" t="inlineStr"/>
       <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="inlineStr"/>
+      <c r="AH86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>8033424955580</t>
+          <t>8033424955160</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MEDIUM AGNELLO  (2кг) Корм для взрослых собак средних  пород с ягненком</t>
+          <t xml:space="preserve">            PRD Adult  MAXI POLLO (12кг) Корм для взрослых собак  крупных пород с курицей</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>106.99</v>
+      </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
@@ -4297,20 +4559,23 @@
       <c r="AE87" t="inlineStr"/>
       <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="inlineStr"/>
+      <c r="AH87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>8033424955016</t>
+          <t>8033424955634</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MEDIUM AGNELLO (12кг) Корм для взрослых собак средних  пород с ягненком</t>
+          <t xml:space="preserve">            PRD Adult  MAXI SALMON  (2кг) Корм для взрослых собак крупных  пород с лососем</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>25.02</v>
+      </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
@@ -4340,20 +4605,23 @@
       <c r="AE88" t="inlineStr"/>
       <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="inlineStr"/>
+      <c r="AH88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>8033424955139</t>
+          <t>8033424955276</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MEDIUM MAIALE  (2кг) Корм для взрослых собак средних пород со свининой</t>
+          <t xml:space="preserve">            PRD Adult  MAXI SALMON (12кг) Корм для взрослых собак крупных  пород с лососем</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>112.97</v>
+      </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
@@ -4383,20 +4651,23 @@
       <c r="AE89" t="inlineStr"/>
       <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="inlineStr"/>
+      <c r="AH89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>8033424955030</t>
+          <t>8033424955580</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MEDIUM MAIALE (12кг) Корм для взрослых собак средних пород со свининой</t>
+          <t xml:space="preserve">            PRD Adult  MEDIUM AGNELLO  (2кг) Корм для взрослых собак средних  пород с ягненком</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>25.02</v>
+      </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
@@ -4426,20 +4697,23 @@
       <c r="AE90" t="inlineStr"/>
       <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="inlineStr"/>
+      <c r="AH90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>8033424955153</t>
+          <t>8033424955016</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MEDIUM SALMON  (2кг) Корм для взрослых собак средних пород с лососем</t>
+          <t xml:space="preserve">            PRD Adult  MEDIUM AGNELLO (12кг) Корм для взрослых собак средних  пород с ягненком</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>112.97</v>
+      </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
@@ -4469,20 +4743,23 @@
       <c r="AE91" t="inlineStr"/>
       <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="inlineStr"/>
+      <c r="AH91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>8033424955054</t>
+          <t>8033424955139</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MEDIUM SALMON (12кг) Корм для взрослых собак средних пород с лососем</t>
+          <t xml:space="preserve">            PRD Adult  MEDIUM MAIALE  (2кг) Корм для взрослых собак средних пород со свининой</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>25.02</v>
+      </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
@@ -4512,20 +4789,23 @@
       <c r="AE92" t="inlineStr"/>
       <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="inlineStr"/>
+      <c r="AH92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>8033424955573</t>
+          <t>8033424955030</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MINI AGNELLO (2кг) Корм для взрослых собак мелких пород с ягненком</t>
+          <t xml:space="preserve">            PRD Adult  MEDIUM MAIALE (12кг) Корм для взрослых собак средних пород со свининой</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>112.97</v>
+      </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
@@ -4555,20 +4835,23 @@
       <c r="AE93" t="inlineStr"/>
       <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="inlineStr"/>
+      <c r="AH93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>8033424955566</t>
+          <t>8033424955153</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MINI AGNELLO (8кг) Корм для взрослых собак мелких пород с ягненком</t>
+          <t xml:space="preserve">            PRD Adult  MEDIUM SALMON  (2кг) Корм для взрослых собак средних пород с лососем</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>25.02</v>
+      </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
@@ -4598,20 +4881,23 @@
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="inlineStr"/>
+      <c r="AH94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>8033424955559</t>
+          <t>8033424955054</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MINI MAIALE (2кг) Корм для взрослых собак мелких пород со свининой</t>
+          <t xml:space="preserve">            PRD Adult  MEDIUM SALMON (12кг) Корм для взрослых собак средних пород с лососем</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>112.97</v>
+      </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
@@ -4641,20 +4927,23 @@
       <c r="AE95" t="inlineStr"/>
       <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="inlineStr"/>
+      <c r="AH95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>8033424955542</t>
+          <t>8033424955573</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Adult  MINI MAIALE (8кг) Корм для взрослых собак мелких пород со свининой</t>
+          <t xml:space="preserve">            PRD Adult  MINI AGNELLO (2кг) Корм для взрослых собак мелких пород с ягненком</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>22.28</v>
+      </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
@@ -4684,20 +4973,23 @@
       <c r="AE96" t="inlineStr"/>
       <c r="AF96" t="inlineStr"/>
       <c r="AG96" t="inlineStr"/>
+      <c r="AH96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>8033424955177</t>
+          <t>8033424955566</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Puppy  MAXI POLLO  (2кг) Корм для щенков  крупных пород с курицей</t>
+          <t xml:space="preserve">            PRD Adult  MINI AGNELLO (8кг) Корм для взрослых собак мелких пород с ягненком</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>76.08</v>
+      </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
@@ -4727,20 +5019,23 @@
       <c r="AE97" t="inlineStr"/>
       <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="inlineStr"/>
+      <c r="AH97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>8033424955085</t>
+          <t>8033424955559</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">            PRD Puppy  MAXI POLLO (12кг) Корм для щенков  крупных пород с курицей</t>
+          <t xml:space="preserve">            PRD Adult  MINI MAIALE (2кг) Корм для взрослых собак мелких пород со свининой</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>22.28</v>
+      </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
@@ -4770,20 +5065,23 @@
       <c r="AE98" t="inlineStr"/>
       <c r="AF98" t="inlineStr"/>
       <c r="AG98" t="inlineStr"/>
+      <c r="AH98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>8033424957997</t>
+          <t>8033424955542</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve">            пробник PRD CAMPIONE Puppy MINI&amp;MEDIUM POLLO (0.3кг) Корм для щенков мелких и средн. пород с курицей</t>
+          <t xml:space="preserve">            PRD Adult  MINI MAIALE (8кг) Корм для взрослых собак мелких пород со свининой</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>76.08</v>
+      </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
@@ -4813,20 +5111,23 @@
       <c r="AE99" t="inlineStr"/>
       <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="inlineStr"/>
+      <c r="AH99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>8033424969099</t>
+          <t>8033424955177</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve">            HTD Adult All Breeds FOREST (1,5кг) Корм для взр. собак всех пород ягн./свин./буйвол/бурый рис </t>
+          <t xml:space="preserve">            PRD Puppy  MAXI POLLO  (2кг) Корм для щенков  крупных пород с курицей</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>26.22</v>
+      </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
@@ -4856,20 +5157,23 @@
       <c r="AE100" t="inlineStr"/>
       <c r="AF100" t="inlineStr"/>
       <c r="AG100" t="inlineStr"/>
+      <c r="AH100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>8033424969082</t>
+          <t>8033424955085</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve">            HTD Adult All Breeds FOREST (10кг) Корм для взр. собак всех пород ягн./свин./буйвол/бурый рис </t>
+          <t xml:space="preserve">            PRD Puppy  MAXI POLLO (12кг) Корм для щенков  крупных пород с курицей</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>117.96</v>
+      </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
@@ -4899,20 +5203,23 @@
       <c r="AE101" t="inlineStr"/>
       <c r="AF101" t="inlineStr"/>
       <c r="AG101" t="inlineStr"/>
+      <c r="AH101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>8033424969112</t>
+          <t>8033424957997</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve">            HTD Adult All Breeds OCEAN (1,5кг) Корм для взр. собак всех пород лосось/сельдь/бурый рис </t>
+          <t xml:space="preserve">            пробник PRD CAMPIONE Puppy MINI&amp;MEDIUM POLLO (0.3кг) Корм для щенков мелких и средн. пород с курицей</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>6</v>
+      </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
@@ -4942,20 +5249,23 @@
       <c r="AE102" t="inlineStr"/>
       <c r="AF102" t="inlineStr"/>
       <c r="AG102" t="inlineStr"/>
+      <c r="AH102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>8033424969105</t>
+          <t>8033424969099</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve">            HTD Adult All Breeds OCEAN (10кг) Корм для взр. собак всех пород лосось/сельдь/бурый рис </t>
+          <t xml:space="preserve">            HTD Adult All Breeds FOREST (1,5кг) Корм для взр. собак всех пород ягн./свин./буйвол/бурый рис </t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>15.24</v>
+      </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -4985,20 +5295,23 @@
       <c r="AE103" t="inlineStr"/>
       <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="inlineStr"/>
+      <c r="AH103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>8033424969051</t>
+          <t>8033424969082</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve">            HTD Adult MINI  FOREST (1,5кг) Корм для взр. собак мелких пород ягн./свин./буйвол/бурый рис </t>
+          <t xml:space="preserve">            HTD Adult All Breeds FOREST (10кг) Корм для взр. собак всех пород ягн./свин./буйвол/бурый рис </t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>113.27</v>
+      </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
@@ -5028,20 +5341,23 @@
       <c r="AE104" t="inlineStr"/>
       <c r="AF104" t="inlineStr"/>
       <c r="AG104" t="inlineStr"/>
+      <c r="AH104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>8033424969044</t>
+          <t>8033424969112</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve">            HTD Adult MINI  FOREST (10кг) Корм для взр. собак мелких пород ягн./свин./буйвол/бурый рис </t>
+          <t xml:space="preserve">            HTD Adult All Breeds OCEAN (1,5кг) Корм для взр. собак всех пород лосось/сельдь/бурый рис </t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="n">
+        <v>15.24</v>
+      </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
@@ -5071,20 +5387,23 @@
       <c r="AE105" t="inlineStr"/>
       <c r="AF105" t="inlineStr"/>
       <c r="AG105" t="inlineStr"/>
+      <c r="AH105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>8033424969075</t>
+          <t>8033424969105</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve">            HTD Adult MINI  OCEAN (1,5кг) Корм для взр. собак мелких  пород лосось/сельдь/бурый рис </t>
+          <t xml:space="preserve">            HTD Adult All Breeds OCEAN (10кг) Корм для взр. собак всех пород лосось/сельдь/бурый рис </t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
+      <c r="D106" t="n">
+        <v>113.27</v>
+      </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
@@ -5114,20 +5433,23 @@
       <c r="AE106" t="inlineStr"/>
       <c r="AF106" t="inlineStr"/>
       <c r="AG106" t="inlineStr"/>
+      <c r="AH106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>8033424969068</t>
+          <t>8033424969051</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve">            HTD Adult MINI  OCEAN (10кг)  Корм для взр. собак мелких  пород лосось/сельдь/бурый рис </t>
+          <t xml:space="preserve">            HTD Adult MINI  FOREST (1,5кг) Корм для взр. собак мелких пород ягн./свин./буйвол/бурый рис </t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="n">
+        <v>19.37</v>
+      </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -5157,20 +5479,23 @@
       <c r="AE107" t="inlineStr"/>
       <c r="AF107" t="inlineStr"/>
       <c r="AG107" t="inlineStr"/>
+      <c r="AH107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>8033424969013</t>
+          <t>8033424969044</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve">            HTD PUPPY  All Breeds FOREST (1,5кг) Корм для щенков всех  пород  ягн./свин./буйвол/бурый рис </t>
+          <t xml:space="preserve">            HTD Adult MINI  FOREST (10кг) Корм для взр. собак мелких пород ягн./свин./буйвол/бурый рис </t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
+      <c r="D108" t="n">
+        <v>119.24</v>
+      </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
@@ -5200,20 +5525,23 @@
       <c r="AE108" t="inlineStr"/>
       <c r="AF108" t="inlineStr"/>
       <c r="AG108" t="inlineStr"/>
+      <c r="AH108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>8033424969006</t>
+          <t>8033424969075</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve">            HTD PUPPY  All Breeds FOREST (10кг)  Корм для щенков всех  пород  ягн./свин./буйвол/бурый рис </t>
+          <t xml:space="preserve">            HTD Adult MINI  OCEAN (1,5кг) Корм для взр. собак мелких  пород лосось/сельдь/бурый рис </t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="n">
+        <v>19.37</v>
+      </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
@@ -5243,20 +5571,23 @@
       <c r="AE109" t="inlineStr"/>
       <c r="AF109" t="inlineStr"/>
       <c r="AG109" t="inlineStr"/>
+      <c r="AH109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>8033424969037</t>
+          <t>8033424969068</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve">            HTD PUPPY  All Breeds OCEAN (1,5кг) Корм для щенков всех  пород лосось/сельдь/бурый рис </t>
+          <t xml:space="preserve">            HTD Adult MINI  OCEAN (10кг)  Корм для взр. собак мелких  пород лосось/сельдь/бурый рис </t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
+      <c r="D110" t="n">
+        <v>119.24</v>
+      </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -5286,20 +5617,23 @@
       <c r="AE110" t="inlineStr"/>
       <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="inlineStr"/>
+      <c r="AH110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>8033424969020</t>
+          <t>8033424969013</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">            HTD PUPPY  All Breeds OCEAN (10кг) Корм для щенков всех  пород лосось/сельдь/бурый рис </t>
+          <t xml:space="preserve">            HTD PUPPY  All Breeds FOREST (1,5кг) Корм для щенков всех  пород  ягн./свин./буйвол/бурый рис </t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="n">
+        <v>19.37</v>
+      </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
@@ -5329,20 +5663,23 @@
       <c r="AE111" t="inlineStr"/>
       <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="inlineStr"/>
+      <c r="AH111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>8009470060493</t>
+          <t>8033424969006</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">                wSp.Dog EXCELLENCE  Pate Puppy&amp;Jun Tuna (150) Конс. корм паштет из тунца для щенков</t>
+          <t xml:space="preserve">            HTD PUPPY  All Breeds FOREST (10кг)  Корм для щенков всех  пород  ягн./свин./буйвол/бурый рис </t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="n">
+        <v>119.24</v>
+      </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
@@ -5372,20 +5709,23 @@
       <c r="AE112" t="inlineStr"/>
       <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="inlineStr"/>
+      <c r="AH112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>8009470297097</t>
+          <t>8033424969037</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">                GC Indoor (0,4кг) Корм для домашних кошек</t>
+          <t xml:space="preserve">            HTD PUPPY  All Breeds OCEAN (1,5кг) Корм для щенков всех  пород лосось/сельдь/бурый рис </t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="n">
+        <v>19.37</v>
+      </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -5415,20 +5755,23 @@
       <c r="AE113" t="inlineStr"/>
       <c r="AF113" t="inlineStr"/>
       <c r="AG113" t="inlineStr"/>
+      <c r="AH113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>8009470386142</t>
+          <t>8033424969020</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">                GD Adult All breeds LIGHT With CHICKEN (3кг) Корм для взрослых собак всех пород низкокалор.с курицей</t>
+          <t xml:space="preserve">            HTD PUPPY  All Breeds OCEAN (10кг) Корм для щенков всех  пород лосось/сельдь/бурый рис </t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
+      <c r="D114" t="n">
+        <v>119.24</v>
+      </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
@@ -5458,6 +5801,145 @@
       <c r="AE114" t="inlineStr"/>
       <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="inlineStr"/>
+      <c r="AH114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>8009470060493</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                wSp.Dog EXCELLENCE  Pate Puppy&amp;Jun Tuna (150) Конс. корм паштет из тунца для щенков</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="inlineStr"/>
+      <c r="AE115" t="inlineStr"/>
+      <c r="AF115" t="inlineStr"/>
+      <c r="AG115" t="inlineStr"/>
+      <c r="AH115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>8009470297097</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                GC Indoor (0,4кг) Корм для домашних кошек</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+      <c r="AB116" t="inlineStr"/>
+      <c r="AC116" t="inlineStr"/>
+      <c r="AD116" t="inlineStr"/>
+      <c r="AE116" t="inlineStr"/>
+      <c r="AF116" t="inlineStr"/>
+      <c r="AG116" t="inlineStr"/>
+      <c r="AH116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>8009470386142</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                GD Adult All breeds LIGHT With CHICKEN (3кг) Корм для взрослых собак всех пород низкокалор.с курицей</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr"/>
+      <c r="AF117" t="inlineStr"/>
+      <c r="AG117" t="inlineStr"/>
+      <c r="AH117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
